--- a/src/attributions/attributions_ig_traj_195.xlsx
+++ b/src/attributions/attributions_ig_traj_195.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1292248638813505</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.005248596702193875</v>
+        <v>-0.07513316298689968</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.224556992242958</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02834201597341822</v>
+        <v>0.008134815887270613</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1368547916434733</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0005626538110286227</v>
+        <v>-0.003065432192118038</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2181395890659293</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003197055636539312</v>
+        <v>-0.0001727015592207062</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04289469838967095</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.004569389192671264</v>
+        <v>-0.1034251572261255</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01448340324324757</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03203062191766319</v>
+        <v>-0.0237150189021015</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,82 +1079,82 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03480062915613252</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0395686590261275</v>
+        <v>-0.05533071069590436</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.01713963613298442</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02565019297793065</v>
+        <v>-0.01542473018745792</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03210085390480968</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02371370492441759</v>
+        <v>-0.02499626156132146</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.02433931786697912</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02799813111196214</v>
+        <v>0.07335784195797591</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.03409266603307994</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.009174020479431794</v>
+        <v>-0.09747175097281018</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.07048834296269527</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.05068060383940945</v>
+        <v>0.01136902336123896</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,46 +1166,46 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.07112553418323853</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.004597091523158494</v>
+        <v>-0.02865649821570666</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.1033052057149321</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02202914709383536</v>
+        <v>0.02854527687070273</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03647030446396995</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.003098504046973718</v>
+        <v>0.02405885502493103</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.03544817232043314</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03172758548363736</v>
+        <v>-0.06990616414759654</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0370275762374806</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.02297774535559676</v>
+        <v>-0.04038669193535912</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02249102905515309</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0283311455866806</v>
+        <v>-0.007291196476252951</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.0139275638881325</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.001059566854256018</v>
+        <v>0.03040352147995489</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03267992352547659</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02184190228235557</v>
+        <v>0.01224640038650156</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.007597863832820548</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02562198414331073</v>
+        <v>-0.009288310456953388</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.01161331693495279</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.005069421937655695</v>
+        <v>0.04950123115183769</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.009011320095362456</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.005411137729506796</v>
+        <v>0.04530621560229153</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.03669277790065874</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02177100810275412</v>
+        <v>0.007527598420719271</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,49 +1328,49 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02424088733599744</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03682654311497378</v>
+        <v>0.0332190769767132</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.03651431811600674</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02021102911608696</v>
+        <v>0.04671352483237037</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01961350167507315</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02642767025341481</v>
+        <v>-0.02344918865452078</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.03415356360395851</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01855979839446097</v>
+        <v>-0.03563786140452697</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00649503953868856</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.005078849041859432</v>
+        <v>-0.06148322476389054</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>-0.01348045115148365</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.002763779005342176</v>
+        <v>-0.03216953766349701</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05757632188122429</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005433295808221545</v>
+        <v>0.04248559568891849</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.06517213132250246</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.001726283823199035</v>
+        <v>-0.02494558276727713</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0005673805715568462</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.03635416355500974</v>
+        <v>0.04440061486491791</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.04343541494434484</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.004773432086234674</v>
+        <v>0.04427119156428989</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01804548213316248</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.005645234204699763</v>
+        <v>0.04175983852563794</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.02837712393765177</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02453573700725169</v>
+        <v>0.01515671653930182</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,52 +1490,52 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.01393730589856652</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0126862446437263</v>
+        <v>-0.001727621869630965</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.004742519334957517</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0225727621612215</v>
+        <v>-0.004203330212255114</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.04878561209590306</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001704608036296704</v>
+        <v>-0.0112934643681217</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.01983029870617169</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01029885750410528</v>
+        <v>-0.001772087722976833</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
@@ -1544,25 +1544,25 @@
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05683871529341895</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.04158891061717928</v>
+        <v>-0.04271389418570019</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02963769923369615</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
